--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/del_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/del_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,191 +390,191 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -582,9 +582,17 @@
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -595,7 +603,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -615,202 +623,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>126</v>
+      <c r="B27">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +836,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -840,201 +856,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>124</v>
       </c>
     </row>
@@ -1045,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1065,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>55</v>
@@ -1073,193 +1097,201 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>123</v>
       </c>
     </row>
@@ -1270,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1290,202 +1322,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>122</v>
+      <c r="B27">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1515,201 +1555,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>120</v>
       </c>
     </row>
@@ -1720,7 +1768,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1740,201 +1788,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>119</v>
       </c>
     </row>
@@ -1945,7 +2001,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1965,23 +2021,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>54</v>
@@ -1989,178 +2045,186 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>119</v>
+      <c r="B27">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2170,7 +2234,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2190,15 +2254,15 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>52</v>
@@ -2206,185 +2270,193 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>117</v>
       </c>
     </row>
@@ -2395,7 +2467,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2415,23 +2487,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>53</v>
@@ -2439,177 +2511,185 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>116</v>
       </c>
     </row>
@@ -2620,7 +2700,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2640,31 +2720,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>55</v>
@@ -2672,169 +2752,177 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>114</v>
       </c>
     </row>
@@ -2845,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2865,201 +2953,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -3070,7 +3166,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3090,201 +3186,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>111</v>
       </c>
     </row>
@@ -3295,7 +3399,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3315,201 +3419,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -3520,7 +3632,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3540,201 +3652,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -3745,7 +3865,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3765,201 +3885,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -3970,7 +4098,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3990,201 +4118,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -4195,7 +4331,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4215,201 +4351,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -4420,7 +4564,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4440,201 +4584,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>129</v>
       </c>
     </row>
@@ -4645,7 +4797,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4665,201 +4817,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>127</v>
       </c>
     </row>
